--- a/Tekster/Tidsplan.xlsx
+++ b/Tekster/Tidsplan.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -505,7 +505,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -525,7 +525,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -534,12 +533,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -570,20 +567,49 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="God" xfId="1" builtinId="26"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -911,17 +937,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="19" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="32" customHeight="1">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:18" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -951,8 +979,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="16">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="54" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -1004,8 +1032,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="16">
-      <c r="B4" s="1"/>
+    <row r="4" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="55"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
       <c r="E4" s="1"/>
@@ -1023,358 +1051,358 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="2:18" ht="31" customHeight="1">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="2:18" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="14"/>
-    </row>
-    <row r="6" spans="2:18" ht="31" customHeight="1">
-      <c r="B6" s="4" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="13"/>
+    </row>
+    <row r="6" spans="2:18" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="19"/>
-    </row>
-    <row r="7" spans="2:18" ht="16">
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-    </row>
-    <row r="8" spans="2:18">
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-    </row>
-    <row r="9" spans="2:18" ht="16">
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-    </row>
-    <row r="10" spans="2:18" ht="16">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-    </row>
-    <row r="11" spans="2:18" ht="16">
-      <c r="B11" s="25" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="18"/>
+    </row>
+    <row r="7" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="56"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="57"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+    </row>
+    <row r="9" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="58"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+    </row>
+    <row r="10" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="58"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+    </row>
+    <row r="11" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="32" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="31"/>
-    </row>
-    <row r="12" spans="2:18" ht="16">
-      <c r="B12" s="33"/>
-      <c r="C12" s="34" t="s">
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="28"/>
+    </row>
+    <row r="12" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="60"/>
+      <c r="C12" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="37"/>
-    </row>
-    <row r="13" spans="2:18" ht="16">
-      <c r="B13" s="33"/>
-      <c r="C13" s="34" t="s">
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="34"/>
+    </row>
+    <row r="13" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="30"/>
+      <c r="C13" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="37"/>
-    </row>
-    <row r="14" spans="2:18" ht="16">
-      <c r="B14" s="33"/>
-      <c r="C14" s="34" t="s">
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="34"/>
+    </row>
+    <row r="14" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="30"/>
+      <c r="C14" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="37"/>
-    </row>
-    <row r="15" spans="2:18" ht="16">
-      <c r="B15" s="33"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="35" t="s">
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="34"/>
+    </row>
+    <row r="15" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="30"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="37"/>
-    </row>
-    <row r="16" spans="2:18" ht="16">
-      <c r="B16" s="33"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="37"/>
-    </row>
-    <row r="17" spans="2:18" ht="16">
-      <c r="B17" s="33"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="37"/>
-    </row>
-    <row r="18" spans="2:18" ht="16">
-      <c r="B18" s="33"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="37"/>
-    </row>
-    <row r="19" spans="2:18" ht="16">
-      <c r="B19" s="33"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="37"/>
-    </row>
-    <row r="20" spans="2:18">
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="44"/>
-    </row>
-    <row r="21" spans="2:18">
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="49"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="34"/>
+    </row>
+    <row r="16" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="30"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="34"/>
+    </row>
+    <row r="17" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="30"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="34"/>
+    </row>
+    <row r="18" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="30"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="34"/>
+    </row>
+    <row r="19" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="30"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="34"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="41"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Tekster/Tidsplan.xlsx
+++ b/Tekster/Tidsplan.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24620" windowHeight="12300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Uge:</t>
   </si>
@@ -99,9 +99,6 @@
     <t>To Do:</t>
   </si>
   <si>
-    <t>Kig på opgave-formuleringen</t>
-  </si>
-  <si>
     <t>Lav brugertasks</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>Brugerscenarier</t>
   </si>
   <si>
-    <t>Begynd så småt på tests - mht. tasks</t>
-  </si>
-  <si>
     <t>Overvej hovedproblemer</t>
   </si>
   <si>
@@ -129,10 +123,29 @@
     <t>Simpel klasseopstilling</t>
   </si>
   <si>
-    <t>Aftal vedr. dagbogsskrivning, mødetider osv.</t>
-  </si>
-  <si>
     <t>Simple problemløsninger</t>
+  </si>
+  <si>
+    <t>Koderi af "lavere klasser"</t>
+  </si>
+  <si>
+    <t>Begynd så småt på tests 
+mht. tasks</t>
+  </si>
+  <si>
+    <t>Aftal vedr. dagbogsskrivning, 
+mødetider osv.</t>
+  </si>
+  <si>
+    <t>Simpel implementation 
+af DB</t>
+  </si>
+  <si>
+    <t>Kig på opgave-
+formuleringen</t>
+  </si>
+  <si>
+    <t>Forelæsning om database</t>
   </si>
 </sst>
 </file>
@@ -200,7 +213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +230,24 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -505,7 +536,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -537,39 +568,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -585,21 +583,114 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Besøgt link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="God" xfId="1" builtinId="26"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -937,19 +1028,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="topRight" activeCell="D10" sqref="D10"/>
+      <selection pane="topRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="19" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="53" t="s">
+    <row r="2" spans="2:18" ht="32" customHeight="1">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -979,8 +1070,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="54" t="s">
+    <row r="3" spans="2:18" ht="16.5">
+      <c r="B3" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -1032,8 +1123,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="55"/>
+    <row r="4" spans="2:18" ht="16.5">
+      <c r="B4" s="24"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
       <c r="E4" s="1"/>
@@ -1051,50 +1142,50 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="2:18" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+    <row r="5" spans="2:18" ht="31" customHeight="1">
+      <c r="B5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="47"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="29"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="13"/>
     </row>
-    <row r="6" spans="2:18" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="53" t="s">
+    <row r="6" spans="2:18" ht="31" customHeight="1">
+      <c r="B6" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="51"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="35"/>
       <c r="R6" s="18"/>
     </row>
-    <row r="7" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="56"/>
+    <row r="7" spans="2:18" ht="16.5">
+      <c r="B7" s="25"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -1112,8 +1203,8 @@
       <c r="Q7" s="19"/>
       <c r="R7" s="19"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="57"/>
+    <row r="8" spans="2:18">
+      <c r="B8" s="26"/>
       <c r="C8" s="21"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -1131,8 +1222,8 @@
       <c r="Q8" s="20"/>
       <c r="R8" s="20"/>
     </row>
-    <row r="9" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="58"/>
+    <row r="9" spans="2:18" ht="16.5">
+      <c r="B9" s="27"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -1150,8 +1241,8 @@
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
     </row>
-    <row r="10" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="58"/>
+    <row r="10" spans="2:18" ht="16.5">
+      <c r="B10" s="27"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -1169,240 +1260,246 @@
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
     </row>
-    <row r="11" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="59" t="s">
+    <row r="11" spans="2:18" ht="43" customHeight="1">
+      <c r="B11" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="29" t="s">
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="43"/>
+    </row>
+    <row r="12" spans="2:18" ht="43" customHeight="1">
+      <c r="B12" s="45"/>
+      <c r="C12" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="49"/>
+    </row>
+    <row r="13" spans="2:18" ht="43" customHeight="1">
+      <c r="B13" s="45"/>
+      <c r="C13" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="28"/>
-    </row>
-    <row r="12" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="60"/>
-      <c r="C12" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="32" t="s">
+      <c r="D13" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="49"/>
+      <c r="G13" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="50"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="49"/>
+    </row>
+    <row r="14" spans="2:18" ht="43" customHeight="1">
+      <c r="B14" s="45"/>
+      <c r="C14" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="34"/>
-    </row>
-    <row r="13" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="30"/>
-      <c r="C13" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="32" t="s">
+      <c r="D14" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="34"/>
-    </row>
-    <row r="14" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="30"/>
-      <c r="C14" s="31" t="s">
+      <c r="E14" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="33" t="s">
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="49"/>
+    </row>
+    <row r="15" spans="2:18" ht="43" customHeight="1">
+      <c r="B15" s="45"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="34"/>
-    </row>
-    <row r="15" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="30"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="32" t="s">
+      <c r="E15" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="34"/>
-    </row>
-    <row r="16" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="34"/>
-    </row>
-    <row r="17" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="34"/>
-    </row>
-    <row r="18" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="30"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="34"/>
-    </row>
-    <row r="19" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="30"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="34"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="41"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="46"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="49"/>
+    </row>
+    <row r="16" spans="2:18" ht="43" customHeight="1">
+      <c r="B16" s="45"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="49"/>
+    </row>
+    <row r="17" spans="2:18" ht="43" customHeight="1">
+      <c r="B17" s="45"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="49"/>
+    </row>
+    <row r="18" spans="2:18" ht="43" customHeight="1">
+      <c r="B18" s="45"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="49"/>
+    </row>
+    <row r="19" spans="2:18" ht="43" customHeight="1">
+      <c r="B19" s="45"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="49"/>
+    </row>
+    <row r="20" spans="2:18" ht="43" customHeight="1">
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="59"/>
+    </row>
+    <row r="21" spans="2:18" ht="43" customHeight="1">
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Tekster/Tidsplan.xlsx
+++ b/Tekster/Tidsplan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Uge:</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>Simple problemløsninger</t>
-  </si>
-  <si>
-    <t>Koderi af "lavere klasser"</t>
   </si>
   <si>
     <t>Begynd så småt på tests 
@@ -146,6 +143,21 @@
   </si>
   <si>
     <t>Forelæsning om database</t>
+  </si>
+  <si>
+    <t>Kodning af "lavere klasser"</t>
+  </si>
+  <si>
+    <t>Diskussion af controller-
+implementation</t>
+  </si>
+  <si>
+    <t>Implementation af 
+toString()-metoder i alle klasser</t>
+  </si>
+  <si>
+    <t>Diskussion af GUI-
+mockups</t>
   </si>
 </sst>
 </file>
@@ -536,7 +548,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -681,6 +693,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1031,7 +1046,7 @@
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="topRight" activeCell="E14" sqref="E14"/>
+      <selection pane="topRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1070,7 +1085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="16.5">
+    <row r="3" spans="2:18" ht="16">
       <c r="B3" s="23" t="s">
         <v>6</v>
       </c>
@@ -1123,7 +1138,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="16.5">
+    <row r="4" spans="2:18" ht="16">
       <c r="B4" s="24"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
@@ -1184,7 +1199,7 @@
       <c r="Q6" s="35"/>
       <c r="R6" s="18"/>
     </row>
-    <row r="7" spans="2:18" ht="16.5">
+    <row r="7" spans="2:18" ht="16">
       <c r="B7" s="25"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -1222,7 +1237,7 @@
       <c r="Q8" s="20"/>
       <c r="R8" s="20"/>
     </row>
-    <row r="9" spans="2:18" ht="16.5">
+    <row r="9" spans="2:18" ht="16">
       <c r="B9" s="27"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -1241,7 +1256,7 @@
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
     </row>
-    <row r="10" spans="2:18" ht="16.5">
+    <row r="10" spans="2:18" ht="16">
       <c r="B10" s="27"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -1286,7 +1301,7 @@
     <row r="12" spans="2:18" ht="43" customHeight="1">
       <c r="B12" s="45"/>
       <c r="C12" s="46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="47" t="s">
         <v>29</v>
@@ -1295,10 +1310,10 @@
         <v>26</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="50"/>
       <c r="I12" s="51"/>
@@ -1321,11 +1336,13 @@
         <v>31</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="49"/>
+        <v>35</v>
+      </c>
+      <c r="F13" s="65" t="s">
+        <v>41</v>
+      </c>
       <c r="G13" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" s="50"/>
       <c r="I13" s="51"/>
@@ -1350,7 +1367,9 @@
       <c r="E14" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="49"/>
+      <c r="F14" s="65" t="s">
+        <v>42</v>
+      </c>
       <c r="G14" s="50"/>
       <c r="H14" s="50"/>
       <c r="I14" s="51"/>
@@ -1371,9 +1390,11 @@
         <v>34</v>
       </c>
       <c r="E15" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="49"/>
+        <v>36</v>
+      </c>
+      <c r="F15" s="65" t="s">
+        <v>43</v>
+      </c>
       <c r="G15" s="50"/>
       <c r="H15" s="50"/>
       <c r="I15" s="51"/>

--- a/Tekster/Tidsplan.xlsx
+++ b/Tekster/Tidsplan.xlsx
@@ -145,19 +145,20 @@
     <t>Forelæsning om database</t>
   </si>
   <si>
-    <t>Kodning af "lavere klasser"</t>
-  </si>
-  <si>
     <t>Diskussion af controller-
 implementation</t>
   </si>
   <si>
-    <t>Implementation af 
-toString()-metoder i alle klasser</t>
-  </si>
-  <si>
     <t>Diskussion af GUI-
 mockups</t>
+  </si>
+  <si>
+    <t>Reservation Hashset/MapSet 
+mellem pers. og sæde</t>
+  </si>
+  <si>
+    <t>Kodning af 
+"lavere klasser"</t>
   </si>
 </sst>
 </file>
@@ -537,10 +538,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -698,14 +711,26 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1046,7 +1071,7 @@
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="topRight" activeCell="F16" sqref="F16"/>
+      <selection pane="topRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1309,7 +1334,7 @@
       <c r="E12" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="65" t="s">
         <v>40</v>
       </c>
       <c r="G12" s="50" t="s">
@@ -1368,7 +1393,7 @@
         <v>32</v>
       </c>
       <c r="F14" s="65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G14" s="50"/>
       <c r="H14" s="50"/>
@@ -1393,7 +1418,7 @@
         <v>36</v>
       </c>
       <c r="F15" s="65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" s="50"/>
       <c r="H15" s="50"/>
